--- a/datalists/N2_40_list.xlsx
+++ b/datalists/N2_40_list.xlsx
@@ -107,89 +107,254 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>6480.0</v>
+      <c r="B1">
+        <f t="shared" ref="B1:B11" si="1">E1*0.21</f>
+        <v>2100</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:C11" si="2">E1*0.38</f>
+        <v>3800</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D11" si="3">E1*0.43</f>
+        <v>4300</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>6480.0</v>
+      <c r="B2">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>6480.0</v>
+      <c r="B3">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>6480.0</v>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>6480.0</v>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>19440.0</v>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>19440.0</v>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>19440.0</v>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>19440.0</v>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>19440.0</v>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>19440.0</v>
-      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>6804</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>12312</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>13932</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32400.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
